--- a/data/trans_orig/P70C2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70C2_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>181074</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>158593</v>
+        <v>159786</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>201913</v>
+        <v>203004</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4966790603778395</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4350137164832455</v>
+        <v>0.4382865536076463</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5538398070381869</v>
+        <v>0.5568338263770962</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>194</v>
@@ -762,19 +762,19 @@
         <v>139438</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>124791</v>
+        <v>124577</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>154278</v>
+        <v>153614</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5097365956026394</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4561938441091986</v>
+        <v>0.4554087385381451</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5639864531648748</v>
+        <v>0.5615589391598451</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>344</v>
@@ -783,19 +783,19 @@
         <v>320512</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>294426</v>
+        <v>294114</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>347248</v>
+        <v>343928</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5022765688914402</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4613979274449436</v>
+        <v>0.4609083939318998</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5441755636313544</v>
+        <v>0.5389719540704686</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>82003</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>65753</v>
+        <v>66933</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>97539</v>
+        <v>99093</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.224930753199678</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1803581868647067</v>
+        <v>0.1835942282602265</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2675471679410333</v>
+        <v>0.2718073592442058</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>117</v>
@@ -833,19 +833,19 @@
         <v>68976</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>57569</v>
+        <v>57994</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>80343</v>
+        <v>81193</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2521509628553359</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2104506730610681</v>
+        <v>0.2120076865721697</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2937060156573728</v>
+        <v>0.2968123734850565</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>206</v>
@@ -854,19 +854,19 @@
         <v>150978</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>133161</v>
+        <v>131921</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>174945</v>
+        <v>172339</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2365995216668048</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2086777486195504</v>
+        <v>0.2067343191200676</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2741574460107051</v>
+        <v>0.2700744140920645</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>30738</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20700</v>
+        <v>20398</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46681</v>
+        <v>45554</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08431428018942815</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05677876543663674</v>
+        <v>0.05595120908609414</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1280432681262885</v>
+        <v>0.124953965894034</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -904,19 +904,19 @@
         <v>22066</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15506</v>
+        <v>15280</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30506</v>
+        <v>30803</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08066683148094934</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05668374880341665</v>
+        <v>0.05585940989514449</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1115208729372235</v>
+        <v>0.112606544921898</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>63</v>
@@ -925,19 +925,19 @@
         <v>52805</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>40295</v>
+        <v>40499</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>69789</v>
+        <v>70394</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08275069067217719</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06314715555039997</v>
+        <v>0.06346649052432364</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1093668836893241</v>
+        <v>0.1103154283531161</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>37131</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25957</v>
+        <v>25907</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>50355</v>
+        <v>50022</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1018485107183055</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07119886559221048</v>
+        <v>0.07106260730917191</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1381224212533517</v>
+        <v>0.1372096478084633</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -975,19 +975,19 @@
         <v>17277</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12027</v>
+        <v>11773</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26056</v>
+        <v>25289</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.0631585409025763</v>
+        <v>0.06315854090257632</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04396809963475511</v>
+        <v>0.04303622354187898</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0952505373653498</v>
+        <v>0.09244634973971612</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>63</v>
@@ -996,19 +996,19 @@
         <v>54408</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41826</v>
+        <v>41565</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>68746</v>
+        <v>68924</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0852628816768323</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06554652413053753</v>
+        <v>0.06513749360475533</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1077324410615831</v>
+        <v>0.1080111682599534</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>24931</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16249</v>
+        <v>15187</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>41549</v>
+        <v>40906</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06838476126705866</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04457104384125272</v>
+        <v>0.04165705484169356</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.11396727956408</v>
+        <v>0.1122025182105318</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>25</v>
@@ -1046,19 +1046,19 @@
         <v>22632</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14145</v>
+        <v>14347</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>34087</v>
+        <v>35727</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.08273358442171674</v>
+        <v>0.08273358442171672</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05171071543125736</v>
+        <v>0.05244603401240695</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1246090141785254</v>
+        <v>0.1306052589135774</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>46</v>
@@ -1067,19 +1067,19 @@
         <v>47563</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>32174</v>
+        <v>35725</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>63253</v>
+        <v>65246</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.0745358195169958</v>
+        <v>0.07453581951699578</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05041936439735843</v>
+        <v>0.0559851021852786</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09912475168990216</v>
+        <v>0.1022479327532669</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>8692</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4469</v>
+        <v>4430</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16461</v>
+        <v>16186</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02384263424769031</v>
+        <v>0.0238426342476903</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01225966743894901</v>
+        <v>0.01215203864878423</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0451520972241135</v>
+        <v>0.04439862909692866</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -1117,19 +1117,19 @@
         <v>3160</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7056</v>
+        <v>7479</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01155348473678227</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.00421607650564632</v>
+        <v>0.004225621253634643</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02579517049550659</v>
+        <v>0.02734130849751141</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>15</v>
@@ -1138,19 +1138,19 @@
         <v>11853</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6777</v>
+        <v>6587</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>19560</v>
+        <v>19333</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01857451757574969</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01062015799387133</v>
+        <v>0.01032295553702205</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03065213312880314</v>
+        <v>0.03029749839288311</v>
       </c>
     </row>
     <row r="10">
@@ -1242,19 +1242,19 @@
         <v>287089</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>258067</v>
+        <v>258190</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>315340</v>
+        <v>314186</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4619731178668888</v>
+        <v>0.4619731178668889</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.41527067425694</v>
+        <v>0.4154686662123007</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.507432193152458</v>
+        <v>0.5055753281457114</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>246</v>
@@ -1263,19 +1263,19 @@
         <v>200825</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>181701</v>
+        <v>181143</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>218964</v>
+        <v>219261</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.4514319518484175</v>
+        <v>0.4514319518484174</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4084443175819286</v>
+        <v>0.4071885046810725</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4922062732329889</v>
+        <v>0.4928731536636944</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>478</v>
@@ -1284,19 +1284,19 @@
         <v>487914</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>451366</v>
+        <v>452813</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>520599</v>
+        <v>521299</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4575753435352895</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4232999651633272</v>
+        <v>0.4246564450517754</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4882273515504817</v>
+        <v>0.488883875934386</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>149130</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>127187</v>
+        <v>125769</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>173931</v>
+        <v>174488</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2399745353163037</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2046647092143022</v>
+        <v>0.2023823712692292</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2798835509650283</v>
+        <v>0.2807798964871175</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>180</v>
@@ -1334,19 +1334,19 @@
         <v>120756</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>103906</v>
+        <v>105730</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>137975</v>
+        <v>137763</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2714450406362496</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2335681563314746</v>
+        <v>0.2376693505803525</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3101534214724812</v>
+        <v>0.3096753597209632</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>315</v>
@@ -1355,19 +1355,19 @@
         <v>269886</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>244416</v>
+        <v>242332</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>298325</v>
+        <v>300249</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2531040297437702</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2292179119391367</v>
+        <v>0.2272632397268535</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2797748585876054</v>
+        <v>0.2815791788781813</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>61749</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47430</v>
+        <v>46942</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>81507</v>
+        <v>81918</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.09936351375496663</v>
+        <v>0.09936351375496665</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07632194320404204</v>
+        <v>0.07553684186036186</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1311571313473388</v>
+        <v>0.1318185562155914</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -1405,19 +1405,19 @@
         <v>35389</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26780</v>
+        <v>26832</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45329</v>
+        <v>46415</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.0795514168950345</v>
+        <v>0.07955141689503449</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06019907870525681</v>
+        <v>0.06031584024511463</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1018945797613276</v>
+        <v>0.104335231799381</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>102</v>
@@ -1426,19 +1426,19 @@
         <v>97138</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>79038</v>
+        <v>77368</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>118740</v>
+        <v>117170</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.091097907191794</v>
+        <v>0.09109790719179399</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07412292128791854</v>
+        <v>0.07255749934201623</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1113563322195183</v>
+        <v>0.1098844108915967</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>67057</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>49718</v>
+        <v>49662</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>85894</v>
+        <v>87750</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1079062320151637</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08000377237830236</v>
+        <v>0.07991371191613604</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1382174881128494</v>
+        <v>0.1412038511207202</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>68</v>
@@ -1476,19 +1476,19 @@
         <v>52754</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>41275</v>
+        <v>40735</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>66507</v>
+        <v>67078</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1185857152042095</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09278239136624433</v>
+        <v>0.09156679453554327</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1494998090349723</v>
+        <v>0.1507835766122232</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>122</v>
@@ -1497,19 +1497,19 @@
         <v>119812</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>99733</v>
+        <v>99284</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>143351</v>
+        <v>144567</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1123617122686037</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09353168870116682</v>
+        <v>0.0931103191016654</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1344371344522147</v>
+        <v>0.1355774386357213</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>34135</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>22617</v>
+        <v>22903</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>50740</v>
+        <v>49531</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05492863235083795</v>
+        <v>0.05492863235083797</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03639362722952697</v>
+        <v>0.03685430753191911</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08164841093126909</v>
+        <v>0.0797033795659683</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>32</v>
@@ -1547,19 +1547,19 @@
         <v>25435</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>17773</v>
+        <v>17608</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>35381</v>
+        <v>36362</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.0571754248818678</v>
+        <v>0.05717542488186779</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03995153052757483</v>
+        <v>0.03958012085685961</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07953141257633745</v>
+        <v>0.08173680787838548</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>62</v>
@@ -1568,19 +1568,19 @@
         <v>59570</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>45494</v>
+        <v>45553</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>79118</v>
+        <v>77071</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05586599416679625</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04266523518195923</v>
+        <v>0.04272024009396327</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07419794718632076</v>
+        <v>0.07227856003482953</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>22281</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12587</v>
+        <v>13439</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34204</v>
+        <v>36041</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03585396869583903</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02025483223073246</v>
+        <v>0.02162549583764312</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05503915054841893</v>
+        <v>0.0579957463442059</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -1618,19 +1618,19 @@
         <v>9703</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5687</v>
+        <v>5624</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16606</v>
+        <v>15629</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02181045053422121</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01278290916595934</v>
+        <v>0.01264213209403748</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03732838489151963</v>
+        <v>0.03513285354529841</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -1639,19 +1639,19 @@
         <v>31984</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21821</v>
+        <v>21483</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45977</v>
+        <v>46776</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02999501309374634</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02046452215837146</v>
+        <v>0.02014754046600576</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04311772972930532</v>
+        <v>0.04386720725482825</v>
       </c>
     </row>
     <row r="17">
@@ -1743,19 +1743,19 @@
         <v>238457</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>213414</v>
+        <v>214283</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>260772</v>
+        <v>261642</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.572638983945611</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5124999434334355</v>
+        <v>0.5145855290638637</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6262264010880088</v>
+        <v>0.6283163899765526</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>222</v>
@@ -1764,19 +1764,19 @@
         <v>174846</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>156982</v>
+        <v>157955</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>191651</v>
+        <v>192218</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5232434646480248</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4697839899730581</v>
+        <v>0.472695180410465</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5735334379620113</v>
+        <v>0.5752311657694018</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>413</v>
@@ -1785,19 +1785,19 @@
         <v>413303</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>383123</v>
+        <v>382967</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>441098</v>
+        <v>442730</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.5506479998008792</v>
+        <v>0.5506479998008791</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5104384411776324</v>
+        <v>0.5102303739486416</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5876789611644234</v>
+        <v>0.5898538347659402</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>80762</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>63976</v>
+        <v>62291</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>103341</v>
+        <v>100154</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1939447068302619</v>
+        <v>0.1939447068302618</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1536329247887491</v>
+        <v>0.1495879864960263</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2481673093457273</v>
+        <v>0.2405129550144368</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>74</v>
@@ -1835,19 +1835,19 @@
         <v>62339</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>49019</v>
+        <v>49681</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>77365</v>
+        <v>75710</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1865565701088334</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1466935229987962</v>
+        <v>0.1486750720286033</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2315226181716738</v>
+        <v>0.2265708930299077</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>136</v>
@@ -1856,19 +1856,19 @@
         <v>143101</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>123820</v>
+        <v>122517</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>166432</v>
+        <v>170781</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.190655493561317</v>
+        <v>0.1906554935613169</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1649664358113983</v>
+        <v>0.1632306951755633</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2217384317834555</v>
+        <v>0.2275338292999931</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>26152</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16045</v>
+        <v>15868</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40980</v>
+        <v>40876</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0628027427017635</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03853094681004197</v>
+        <v>0.03810537022993288</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09841106235695908</v>
+        <v>0.09816049861789379</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>36</v>
@@ -1906,19 +1906,19 @@
         <v>27095</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19540</v>
+        <v>19568</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>36657</v>
+        <v>35771</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08108575231714757</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05847513822714316</v>
+        <v>0.05855899831146473</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1096988641110861</v>
+        <v>0.1070470940884876</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>55</v>
@@ -1927,19 +1927,19 @@
         <v>53248</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>39630</v>
+        <v>39573</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>69215</v>
+        <v>71069</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.07094237520866459</v>
+        <v>0.07094237520866456</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05279939067102496</v>
+        <v>0.05272358740162335</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09221523339425461</v>
+        <v>0.09468606271124262</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>46162</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>32007</v>
+        <v>32064</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>66552</v>
+        <v>64232</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1108543204006518</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07686266697524795</v>
+        <v>0.07699884305661765</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1598213517129285</v>
+        <v>0.1542485594133311</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>43</v>
@@ -1977,19 +1977,19 @@
         <v>34068</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>25269</v>
+        <v>24876</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>44194</v>
+        <v>44605</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1019525865205909</v>
+        <v>0.101952586520591</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07562092716114244</v>
+        <v>0.07444464221314273</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1322536057637077</v>
+        <v>0.1334855298426295</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>76</v>
@@ -1998,19 +1998,19 @@
         <v>80230</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>63292</v>
+        <v>62249</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>100240</v>
+        <v>100678</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1068912506445129</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08432502595620672</v>
+        <v>0.08293522367470513</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1335501090747137</v>
+        <v>0.1341344602191892</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>12034</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6363</v>
+        <v>5765</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>22489</v>
+        <v>21169</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.02889860094915699</v>
+        <v>0.02889860094915698</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01528074170339414</v>
+        <v>0.01384410654970773</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05400465139649942</v>
+        <v>0.05083499188666209</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -2048,19 +2048,19 @@
         <v>25795</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18219</v>
+        <v>17583</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>36917</v>
+        <v>36966</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07719522215252267</v>
+        <v>0.07719522215252266</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05452276208239716</v>
+        <v>0.05261969590131187</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1104789238004641</v>
+        <v>0.1106247299523185</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -2069,19 +2069,19 @@
         <v>37829</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>27412</v>
+        <v>26672</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>51185</v>
+        <v>51329</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.05040035346093266</v>
+        <v>0.05040035346093265</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03652113140750239</v>
+        <v>0.03553490117433496</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0681947758433432</v>
+        <v>0.06838679979565751</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>12851</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5914</v>
+        <v>6255</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>22950</v>
+        <v>23804</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03086064517255503</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01420190594991955</v>
+        <v>0.01502188330767172</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05511311982358381</v>
+        <v>0.05716460111024982</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -2119,19 +2119,19 @@
         <v>10014</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5647</v>
+        <v>5567</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16822</v>
+        <v>17566</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02996640425288044</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01689852036784075</v>
+        <v>0.01665920153078396</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05034109351710936</v>
+        <v>0.05256757733417017</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>22</v>
@@ -2140,19 +2140,19 @@
         <v>22864</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>14213</v>
+        <v>14716</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>35150</v>
+        <v>34528</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.03046252732369389</v>
+        <v>0.03046252732369388</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01893566100156877</v>
+        <v>0.01960590084471075</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04683069940149074</v>
+        <v>0.04600241093878964</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>256406</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>233227</v>
+        <v>232145</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>280313</v>
+        <v>280181</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5047608184817889</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4591299695747288</v>
+        <v>0.4569990110686902</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5518223776384128</v>
+        <v>0.5515637302428401</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>292</v>
@@ -2265,19 +2265,19 @@
         <v>226933</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>208485</v>
+        <v>208514</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>245808</v>
+        <v>244514</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5124052398555248</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4707508473348687</v>
+        <v>0.4708160248633373</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5550231238415695</v>
+        <v>0.5521025252985803</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>527</v>
@@ -2286,19 +2286,19 @@
         <v>483339</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>451449</v>
+        <v>452249</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>512120</v>
+        <v>514220</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5083213511236642</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4747831000626687</v>
+        <v>0.4756246876280434</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5385904037554914</v>
+        <v>0.5407981391491626</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>133647</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>113368</v>
+        <v>113931</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>156032</v>
+        <v>156135</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2630963982036202</v>
+        <v>0.2630963982036201</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2231750906445382</v>
+        <v>0.2242843267805369</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3071641671796284</v>
+        <v>0.3073669786260339</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>142</v>
@@ -2336,19 +2336,19 @@
         <v>97228</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>82416</v>
+        <v>83701</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>112575</v>
+        <v>113534</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.219537843806416</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1860920008141538</v>
+        <v>0.1889928397960797</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.254189756490426</v>
+        <v>0.2563544809748048</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>269</v>
@@ -2357,19 +2357,19 @@
         <v>230875</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>206297</v>
+        <v>203930</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>258507</v>
+        <v>257305</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2428081844616357</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2169599101196936</v>
+        <v>0.2144705671997534</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2718682758657123</v>
+        <v>0.2706043391485293</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>45135</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>32565</v>
+        <v>32234</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>61685</v>
+        <v>61758</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.08885186150407516</v>
+        <v>0.08885186150407513</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06410675530688546</v>
+        <v>0.06345542621433913</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1214338015596035</v>
+        <v>0.1215768231256373</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>52</v>
@@ -2407,19 +2407,19 @@
         <v>40462</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>29752</v>
+        <v>31264</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>51828</v>
+        <v>51755</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.09136184957963531</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.06717920579492553</v>
+        <v>0.07059333902052287</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1170254584062162</v>
+        <v>0.1168602854054628</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>91</v>
@@ -2428,19 +2428,19 @@
         <v>85597</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>69626</v>
+        <v>69017</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>106294</v>
+        <v>104354</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.09002093553032575</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07322516220866729</v>
+        <v>0.07258422394576061</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1117879568720959</v>
+        <v>0.1097480913425173</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>28988</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>19491</v>
+        <v>19654</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>41696</v>
+        <v>41073</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.05706576044812559</v>
+        <v>0.05706576044812557</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03837071879421022</v>
+        <v>0.03869024707476554</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08208241889964171</v>
+        <v>0.0808556074216971</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>43</v>
@@ -2478,19 +2478,19 @@
         <v>31173</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>23147</v>
+        <v>23547</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>42750</v>
+        <v>42549</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.07038833766141384</v>
+        <v>0.07038833766141382</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05226490651475823</v>
+        <v>0.05316903565509213</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0965273543950554</v>
+        <v>0.09607449587790762</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>70</v>
@@ -2499,19 +2499,19 @@
         <v>60161</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>47291</v>
+        <v>46440</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>76588</v>
+        <v>74870</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06327100067792146</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04973538444347581</v>
+        <v>0.04884035263985353</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08054712455617591</v>
+        <v>0.07873963533641619</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>27796</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>19375</v>
+        <v>18601</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>42180</v>
+        <v>40094</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.05471910912804302</v>
+        <v>0.05471910912804301</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03814189094208018</v>
+        <v>0.03661802522732209</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.08303618377705894</v>
+        <v>0.07892809147858784</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>42</v>
@@ -2549,19 +2549,19 @@
         <v>30470</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>22091</v>
+        <v>21946</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>40870</v>
+        <v>40818</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.06880023853150051</v>
+        <v>0.0688002385315005</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04987953206649245</v>
+        <v>0.04955381925173099</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09228324591208249</v>
+        <v>0.09216585897107708</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>68</v>
@@ -2570,19 +2570,19 @@
         <v>58266</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>45100</v>
+        <v>44898</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>73965</v>
+        <v>73755</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.06127765926863776</v>
+        <v>0.06127765926863777</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0474316122327309</v>
+        <v>0.04721859043247211</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07778775730476344</v>
+        <v>0.07756694542005037</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>16004</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9057</v>
+        <v>8662</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>27028</v>
+        <v>28684</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03150605223434725</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01782907986244896</v>
+        <v>0.01705248115892211</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0532080530411582</v>
+        <v>0.05646792853373001</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>22</v>
@@ -2620,19 +2620,19 @@
         <v>16611</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10032</v>
+        <v>10766</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>23681</v>
+        <v>24493</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.03750649056550971</v>
+        <v>0.0375064905655097</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02265085689809465</v>
+        <v>0.02431028430627996</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0534717697972958</v>
+        <v>0.05530428607473167</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>35</v>
@@ -2641,19 +2641,19 @@
         <v>32615</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>22491</v>
+        <v>22016</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>45186</v>
+        <v>45136</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.03430086893781513</v>
+        <v>0.03430086893781512</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02365384084550184</v>
+        <v>0.02315351801521819</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04752121423443039</v>
+        <v>0.04746925423868383</v>
       </c>
     </row>
     <row r="31">
@@ -2745,19 +2745,19 @@
         <v>963027</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>916366</v>
+        <v>909052</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1009484</v>
+        <v>1010553</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5040956535227601</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4796712257427957</v>
+        <v>0.4758426703880251</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5284136707433497</v>
+        <v>0.5289731708604972</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>954</v>
@@ -2766,19 +2766,19 @@
         <v>742041</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>707033</v>
+        <v>707011</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>779216</v>
+        <v>774737</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.4962006987253156</v>
+        <v>0.4962006987253154</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4727906844469485</v>
+        <v>0.4727759644728386</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5210593655834893</v>
+        <v>0.5180643927727936</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1762</v>
@@ -2787,19 +2787,19 @@
         <v>1705069</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1649174</v>
+        <v>1650685</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1770719</v>
+        <v>1769419</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.500629124798544</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4842176877585278</v>
+        <v>0.4846615034891938</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5199050039415082</v>
+        <v>0.5195233059754014</v>
       </c>
     </row>
     <row r="33">
@@ -2816,19 +2816,19 @@
         <v>445542</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>405460</v>
+        <v>408852</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>488588</v>
+        <v>487841</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2332184729399282</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2122376558429965</v>
+        <v>0.2140130728700111</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.255751212603765</v>
+        <v>0.2553600692481565</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>513</v>
@@ -2837,19 +2837,19 @@
         <v>349299</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>321759</v>
+        <v>321395</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>378691</v>
+        <v>375672</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2335750278567334</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2151593161572646</v>
+        <v>0.2149156838081494</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2532292683660747</v>
+        <v>0.2512106548546201</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>926</v>
@@ -2858,19 +2858,19 @@
         <v>794841</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>743897</v>
+        <v>747775</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>843044</v>
+        <v>840235</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2333750296134719</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2184173495254148</v>
+        <v>0.2195559980254782</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.247528001723175</v>
+        <v>0.2467032166330155</v>
       </c>
     </row>
     <row r="34">
@@ -2887,19 +2887,19 @@
         <v>163774</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>136982</v>
+        <v>137492</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>193215</v>
+        <v>195390</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0857272848937541</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07170336519202186</v>
+        <v>0.07197012070842843</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.101138132818381</v>
+        <v>0.1022768030646017</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>172</v>
@@ -2908,19 +2908,19 @@
         <v>125013</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>107726</v>
+        <v>107134</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>145053</v>
+        <v>142806</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.08359596768817211</v>
+        <v>0.08359596768817208</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07203615525758481</v>
+        <v>0.07164005304613855</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09699614818381447</v>
+        <v>0.09549397207147182</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>311</v>
@@ -2929,19 +2929,19 @@
         <v>288787</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>254832</v>
+        <v>256274</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>322811</v>
+        <v>324793</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.0847914629032397</v>
+        <v>0.08479146290323969</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07482192343104435</v>
+        <v>0.07524520695704283</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09478135004708753</v>
+        <v>0.09536316402862535</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>179338</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>154056</v>
+        <v>152752</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>210321</v>
+        <v>210436</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.09387436973368526</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0806404315556556</v>
+        <v>0.0799580721427669</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1100925077338486</v>
+        <v>0.1101526392913961</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>181</v>
@@ -2979,19 +2979,19 @@
         <v>135273</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>115115</v>
+        <v>118439</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>156172</v>
+        <v>157443</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.09045654367511553</v>
+        <v>0.09045654367511549</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07697698318763636</v>
+        <v>0.07919997069339391</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1044317494384524</v>
+        <v>0.1052816036189523</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>331</v>
@@ -3000,19 +3000,19 @@
         <v>314611</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>282346</v>
+        <v>281722</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>352018</v>
+        <v>352399</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.09237366548516431</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08290018144037384</v>
+        <v>0.08271710819851073</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1033568081031009</v>
+        <v>0.1034688158372964</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>98896</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>77925</v>
+        <v>79004</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>123333</v>
+        <v>122853</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05176693755538068</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04078973343101534</v>
+        <v>0.04135436363417578</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06455855894140411</v>
+        <v>0.06430746283564126</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>128</v>
@@ -3050,19 +3050,19 @@
         <v>104332</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>86786</v>
+        <v>87048</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>125675</v>
+        <v>127374</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.0697666795585159</v>
+        <v>0.06976667955851588</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.05803382097527974</v>
+        <v>0.05820883798956682</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.08403851307155895</v>
+        <v>0.08517458592317774</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>215</v>
@@ -3071,19 +3071,19 @@
         <v>203228</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>176548</v>
+        <v>177161</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>232707</v>
+        <v>234579</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.05967029156857175</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.05183657154990998</v>
+        <v>0.0520165215758899</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.06832554141816896</v>
+        <v>0.06887535446463212</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>59829</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>42040</v>
+        <v>43376</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>78166</v>
+        <v>78995</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.03131728135449175</v>
+        <v>0.03131728135449174</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02200574052828542</v>
+        <v>0.02270510734964667</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04091574954096647</v>
+        <v>0.04134968635958271</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>52</v>
@@ -3121,19 +3121,19 @@
         <v>39487</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>29367</v>
+        <v>29915</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>50301</v>
+        <v>51416</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.02640508249614757</v>
+        <v>0.02640508249614756</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01963764478452973</v>
+        <v>0.02000407232269921</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03363582708546796</v>
+        <v>0.03438139933823547</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>102</v>
@@ -3142,19 +3142,19 @@
         <v>99316</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>82322</v>
+        <v>81871</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>123260</v>
+        <v>122029</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02916042563100833</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02417068805417191</v>
+        <v>0.02403829536813512</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03619079295707198</v>
+        <v>0.03582915500423801</v>
       </c>
     </row>
     <row r="38">
